--- a/MuttamaDataPaper/Data/column_descriptions_waterquality_data.xlsx
+++ b/MuttamaDataPaper/Data/column_descriptions_waterquality_data.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rver4657\Sydney Uni Dropbox\willem vervoort\Research\MuttamaDataPaper\MuttamaDataPaper\MuttamaDataPaper\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F65C1A2F-BB78-4EAD-8BA2-A7FB830C77BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C9B686-DA9E-49D7-B081-C21948BEE6FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24360" yWindow="1320" windowWidth="17280" windowHeight="9996" xr2:uid="{CAE4DB45-21CD-41F2-A524-9F4374D9B9F7}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{CAE4DB45-21CD-41F2-A524-9F4374D9B9F7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Original" sheetId="1" r:id="rId1"/>
+    <sheet name="Final Set" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="142">
   <si>
     <t>record_id</t>
   </si>
@@ -852,15 +853,602 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ECE0D63-EDF7-4907-862A-9436CBEC7526}">
   <dimension ref="A1:B71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="29.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="8.81640625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A36" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A37" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A38" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A39" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A40" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A41" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A42" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A43" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A44" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A45" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A46" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A47" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A48" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A49" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A50" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A51" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A52" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A53" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A54" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A55" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A56" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A57" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A58" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A59" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A60" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A61" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A62" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A63" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A64" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A65" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A66" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A67" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A68" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A69" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A70" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A71" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E61B55D-F399-40D0-B760-DC816C997586}">
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="29.36328125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="53" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
@@ -927,7 +1515,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -937,498 +1525,114 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A25" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A26" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A27" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A28" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A29" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A30" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A31" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A32" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A33" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A34" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A35" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A36" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A37" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A38" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A39" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A40" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A41" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A42" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A43" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A44" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A45" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A46" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B46" s="2" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A47" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A48" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A49" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A50" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A51" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A52" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A53" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A54" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A55" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A56" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A57" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A58" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A59" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A60" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A61" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A62" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A63" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A64" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A65" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A66" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A67" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A68" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A69" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A70" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A71" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
   </sheetData>
